--- a/Advance Stock/Current Stock.xlsx
+++ b/Advance Stock/Current Stock.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E49EC2-A9F4-4520-82E5-9A111631219D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812B8596-7F0D-4F68-8675-C0948E239199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A41EDFCE-3063-467E-9CA1-EA44BEA11AA4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>SKU Name</t>
   </si>
@@ -87,9 +87,6 @@
     <t>SERVO BRAKE FLUID SUPER HD -20X1/2L-HDPE</t>
   </si>
   <si>
-    <t>SERVO BRAKE FLUID DOT 4-20 X 1/4 L LUBE</t>
-  </si>
-  <si>
     <t>SERVO BRAKE FLUID DOT 4-20 X 1/2 L</t>
   </si>
   <si>
@@ -289,13 +286,22 @@
   </si>
   <si>
     <t>SERVOGREASE MP 3 - 182 KG DRM</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO DEO ACEA C5-4 X 5 L LUBE</t>
+  </si>
+  <si>
+    <t>SERVO BRAKE FLUID DOT 4-20 X 1/4 L</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90 - 210L BRL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,16 +317,326 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF0F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -332,21 +648,221 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0BB65D-422C-470B-8E19-0D3C3DA5B773}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,936 +1199,1002 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1404184</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>19</v>
+        <v>7421234</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1404234</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
+      <c r="A3" s="2">
+        <v>7271111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2502174</v>
-      </c>
-      <c r="B4" t="s">
+        <v>7271111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2502184</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2">
+        <v>7079401</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
         <v>6</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>2502234</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
+        <v>7427401</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>2502401</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="A7" s="2">
+        <v>7427213</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>2540199</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>42</v>
+        <v>7420213</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>2557195</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
+      <c r="A9" s="2">
+        <v>7420213</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>2829230</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
+        <v>7209213</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>2889156</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
+      <c r="A11" s="2">
+        <v>2968213</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>2900103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
+        <v>2557195</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>2900125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
+      <c r="A13" s="2">
+        <v>7232184</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2900145</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
+        <v>7638234</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>2900175</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>21</v>
+      <c r="A15" s="2">
+        <v>7638234</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>2900184</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
+        <v>7205222</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>2909165</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
+      <c r="A17" s="2">
+        <v>7330242</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>2909175</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
+        <v>7330265</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>2914165</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
+      <c r="A19" s="2">
+        <v>7670213</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2914175</v>
-      </c>
-      <c r="B20" t="s">
+        <v>2540199</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>7600184</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2">
         <v>21</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>2924229</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>2927152</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
+        <v>7600203</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>2933156</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>25</v>
+      <c r="A23" s="2">
+        <v>7688203</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>2967111</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>28</v>
+        <v>7688213</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>2967204</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>28</v>
+      <c r="A25" s="2">
+        <v>7470401</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>2968213</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
+        <v>2900145</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>3001265</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
+      <c r="A27" s="2">
+        <v>2900125</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>3006234</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>26</v>
+        <v>2900184</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>3006265</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>30</v>
+      <c r="A29" s="2">
+        <v>2900175</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>3006401</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
+        <v>2900103</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>3006403</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
+      <c r="A31" s="2">
+        <v>2924229</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>3040265</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>25</v>
+        <v>2829230</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>3084401</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
+      <c r="A33" s="2">
+        <v>2914175</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>4906175</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
+        <v>2914165</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>4906184</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35">
-        <v>12</v>
+      <c r="A35" s="2">
+        <v>2909165</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>7079401</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
+        <v>2909175</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>7205222</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
+      <c r="A37" s="2">
+        <v>7472184</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>7208271</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
+        <v>2967204</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>7209213</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
+      <c r="A39" s="2">
+        <v>2967111</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>7211213</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
+        <v>2502401</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>7232184</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
+      <c r="A41" s="2">
+        <v>2502234</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>7271111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42">
+        <v>2502184</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>2502174</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>7330242</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43">
-        <v>20</v>
+      <c r="C43" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>7330265</v>
-      </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
+        <v>7511184</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>7420213</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45">
-        <v>25</v>
+      <c r="A45" s="2">
+        <v>7511401</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>7427213</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46">
-        <v>21</v>
+        <v>7705313</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>7427401</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="A47" s="2">
+        <v>7705303</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>7470401</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
+        <v>7211213</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>7472184</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
+      <c r="A49" s="2">
+        <v>2927152</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>7485174</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50">
-        <v>36</v>
+        <v>2933156</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>7485184</v>
-      </c>
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51">
-        <v>28</v>
+      <c r="A51" s="2">
+        <v>7584401</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>7485234</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+        <v>7584175</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>7485242</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
+      <c r="A53" s="2">
+        <v>7584184</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>7485251</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
+        <v>7577401</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>7485265</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
+      <c r="A55" s="2">
+        <v>7577256</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>7489184</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
+        <v>7577184</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>7489234</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
+      <c r="A57" s="2">
+        <v>7577174</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>7489253</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58">
+        <v>7577234</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>7489265</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
+      <c r="A59" s="2">
+        <v>7577240</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>7511184</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60">
-        <v>10</v>
+        <v>1404184</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>7556184</v>
-      </c>
-      <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
+      <c r="A61" s="2">
+        <v>1404184</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
+        <v>1404234</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>7556234</v>
       </c>
-      <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>7556241</v>
-      </c>
-      <c r="B63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>7556250</v>
-      </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64">
+        <v>7556184</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>7556253</v>
-      </c>
-      <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65">
+      <c r="A65" s="2">
+        <v>7556241</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>7577174</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66">
-        <v>15</v>
+        <v>7556253</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>7577184</v>
-      </c>
-      <c r="B67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67">
-        <v>13</v>
+      <c r="A67" s="2">
+        <v>7556250</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>7577234</v>
-      </c>
-      <c r="B68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68">
-        <v>4</v>
+        <v>7489253</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>7577240</v>
-      </c>
-      <c r="B69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69">
-        <v>13</v>
+      <c r="A69" s="2">
+        <v>7489265</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>7577256</v>
-      </c>
-      <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
+        <v>7489184</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>7577401</v>
-      </c>
-      <c r="B71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71">
+      <c r="A71" s="2">
+        <v>7489234</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>7584175</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
+        <v>2889156</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>7584184</v>
-      </c>
-      <c r="B73" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73">
-        <v>17</v>
+      <c r="A73" s="2">
+        <v>7485242</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>7584401</v>
-      </c>
-      <c r="B74" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
+        <v>7485265</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>7600184</v>
-      </c>
-      <c r="B75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75">
-        <v>53</v>
+      <c r="A75" s="2">
+        <v>7485184</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>7600203</v>
-      </c>
-      <c r="B76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76">
-        <v>69</v>
+        <v>7485174</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>7638234</v>
-      </c>
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
+      <c r="A77" s="2">
+        <v>7485234</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>7670213</v>
-      </c>
-      <c r="B78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78">
+        <v>7485251</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>7688203</v>
-      </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79">
-        <v>66</v>
+      <c r="A79" s="2">
+        <v>7208271</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>7688213</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80">
-        <v>26</v>
+        <v>4906175</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>7705303</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81">
-        <v>9</v>
+      <c r="A81" s="2">
+        <v>4906184</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>7705313</v>
-      </c>
-      <c r="B82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82">
-        <v>10</v>
+        <v>7705451</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>7705337</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" s="2">
+        <v>7705339</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C83">
-        <v>3</v>
+      <c r="C83" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>7705339</v>
-      </c>
-      <c r="B84" t="s">
+        <v>7705341</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C84">
-        <v>11</v>
+      <c r="C84" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>7705341</v>
-      </c>
-      <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85">
-        <v>8</v>
+      <c r="A85" s="2">
+        <v>7705337</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>7705451</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86">
+        <v>3040265</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>3001265</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>3006401</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>3006265</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>3006403</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>3006234</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>3084401</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Advance Stock/Current Stock.xlsx
+++ b/Advance Stock/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812B8596-7F0D-4F68-8675-C0948E239199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AF6B98-16CF-4A87-AE7F-3DD359B4FD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A41EDFCE-3063-467E-9CA1-EA44BEA11AA4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>SKU Name</t>
   </si>
@@ -1174,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0BB65D-422C-470B-8E19-0D3C3DA5B773}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,1003 +1198,1014 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
+        <v>7427213</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>7421234</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>7271111</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>7271111</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>7079401</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>7427401</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7427213</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7420213</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>7420213</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>7209213</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>2968213</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>2557195</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>7232184</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>7638234</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>7638234</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>7205222</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>7330242</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>7330265</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>7670213</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>2540199</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>7600184</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>7600203</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>7688203</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>7688213</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>7470401</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>2900145</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>2900125</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>2900184</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>2900175</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>2900103</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>2924229</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>2829230</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>2914175</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>2914165</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>2909165</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>2909175</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>7472184</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>2967204</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>2967111</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>2502401</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>2502234</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>2502184</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C43" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>2502174</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C44" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>7511184</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>7511401</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>7705313</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>7705303</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>7211213</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C49" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>2927152</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C50" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>2933156</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C51" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>7584401</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>7584175</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>7584184</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C54" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>7577401</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>7577256</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>7577184</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C57" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>7577174</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>7577234</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>7577240</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>1404184</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C61" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>1404184</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>1404234</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C63" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>7556234</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>7556184</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>7556241</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>7556253</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>7556250</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C68" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>7489253</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>7489265</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>7489184</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C71" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>7489234</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>2889156</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C73" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <v>7485242</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C74" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>7485265</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C75" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
         <v>7485184</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C76" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>7485174</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C77" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>7485234</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>7485251</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C79" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>7208271</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>4906175</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C81" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <v>4906184</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>7705451</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C83" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>7705339</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C84" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>7705341</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C85" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>7705337</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>3040265</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C87" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>3001265</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
         <v>3006401</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>3006265</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C90" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>3006403</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>3006234</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>3084401</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C93" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Advance Stock/Current Stock.xlsx
+++ b/Advance Stock/Current Stock.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AF6B98-16CF-4A87-AE7F-3DD359B4FD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E664CE3D-3BB5-4775-AFF6-5E98D18F9B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A41EDFCE-3063-467E-9CA1-EA44BEA11AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$92</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>SKU Name</t>
   </si>
@@ -814,10 +817,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1174,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0BB65D-422C-470B-8E19-0D3C3DA5B773}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,1014 +1201,1003 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
+        <v>7421234</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>7271111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>7271111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>7079401</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>7427401</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>7427213</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>7421234</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C7" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7420213</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7420213</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7209213</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>2968213</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2557195</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>7232184</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>7271111</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>7271111</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>7638234</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>7079401</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>7638234</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>7205222</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>7330242</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>7330265</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>7670213</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>2540199</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>7600184</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>7600203</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>7688203</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>7688213</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>7470401</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2900145</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>2900125</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>2900184</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>2900175</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2900103</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>2924229</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>2829230</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>2914175</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2914165</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>2909165</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>2909175</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>7472184</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>2967204</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>2967111</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>2502401</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>2502234</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>2502184</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>7427401</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="C42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>2502174</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>7511184</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>7511401</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>7705313</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>7705303</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>7211213</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>2927152</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>2933156</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>7584401</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>7584175</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>7584184</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>7577401</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>7577256</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>7577184</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>7577174</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>7577234</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>7577240</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1404184</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7427213</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7420213</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>7420213</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>7209213</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>1404184</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1404234</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>7556234</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>7556184</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>7556241</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>7556253</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>7556250</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>2968213</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>7489253</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>7489265</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>7489184</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>7489234</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>2889156</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>7485242</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>7485265</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>7485184</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>7485174</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>7485234</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>7485251</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>7208271</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>4906175</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>4906184</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>7705451</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>7705339</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>2557195</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>7232184</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>7638234</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>7638234</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>7205222</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>7330242</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>7330265</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>7670213</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>2540199</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>7705341</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>7705337</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>3040265</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="1">
         <v>9</v>
       </c>
-      <c r="C21" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>7600184</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>7600203</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>7688203</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>7688213</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>7470401</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>2900145</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>2900125</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>3001265</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>3006401</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>3006265</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="2">
         <v>14</v>
       </c>
-      <c r="C28" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>2900184</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>2900175</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>2900103</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>2924229</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>2829230</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>2914175</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>2914165</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>2909165</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>2909175</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>3006403</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>3006234</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="2">
         <v>19</v>
       </c>
-      <c r="C37" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>7472184</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>2967204</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>2967111</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>2502401</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>2502234</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>2502184</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>2502174</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>7511184</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>7511401</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>7705313</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>7705303</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>7211213</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>2927152</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>2933156</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>7584401</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>7584175</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>7584184</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>7577401</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>7577256</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>7577184</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>7577174</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>7577234</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>7577240</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>1404184</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>1404184</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>1404234</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>7556234</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>7556184</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>7556241</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>7556253</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>7556250</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>7489253</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>7489265</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>7489184</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>7489234</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>2889156</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>7485242</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>7485265</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>7485184</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>7485174</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>7485234</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>7485251</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>7208271</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C80" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>4906175</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>4906184</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>7705451</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>7705339</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>7705341</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>7705337</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>3040265</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>3001265</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>3006401</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>3006265</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>3006403</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>3006234</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="A92" s="1">
         <v>3084401</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C92" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Advance Stock/Current Stock.xlsx
+++ b/Advance Stock/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E664CE3D-3BB5-4775-AFF6-5E98D18F9B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D49E65-A573-4D91-9781-427AE00B0A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A41EDFCE-3063-467E-9CA1-EA44BEA11AA4}"/>
   </bookViews>
@@ -304,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,14 +439,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,20 +620,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF0F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -754,21 +736,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -814,14 +781,8 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1179,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0BB65D-422C-470B-8E19-0D3C3DA5B773}">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,1003 +1162,1003 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>7421234</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>7271111</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>7271111</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>7079401</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>7427401</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>7427213</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7420213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7420213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7209213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2968213</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2557195</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7232184</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7420213</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7420213</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>7209213</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7638234</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7638234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7205222</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7330242</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7330265</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7670213</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2540199</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7600184</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
         <v>39</v>
       </c>
-      <c r="C10" s="1">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7600203</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7688203</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7688213</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>7470401</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2900145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2900125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2900184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2900175</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2900103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2924229</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2829230</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2914175</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2914165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2909165</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2909175</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7472184</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2967204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2967111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2502401</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2502234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2502184</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2502174</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7511184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>7511401</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>7705313</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>7705303</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>7211213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>2968213</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2927152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2933156</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>7584401</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>7584175</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>7584184</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>7577401</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>7577256</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>7577184</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>7577174</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>7577234</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>7577240</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1404184</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1404184</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1404234</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>7556234</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>7556184</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>7556241</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>7556253</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>7556250</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>7489253</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>7489265</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>7489184</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>7489234</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2889156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>7485242</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>7485265</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>7485184</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>7485174</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>7485234</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>7485251</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>7208271</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>4906175</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4906184</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>7705451</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>7705339</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>2557195</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>7705341</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>7705337</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>3040265</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>7232184</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>7638234</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>7638234</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>7205222</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>7330242</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>7330265</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>7670213</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>2540199</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>7600184</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>7600203</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>7688203</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>3001265</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>3006401</v>
+      </c>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>3006265</v>
+      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>3006403</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>3006234</v>
+      </c>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>7688213</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>7470401</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>2900145</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>2900125</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>2900184</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>2900175</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>2900103</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>2924229</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>2829230</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>2914175</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>2914165</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>2909165</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>2909175</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>7472184</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>2967204</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>2967111</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>2502401</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>2502234</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>2502184</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>2502174</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>7511184</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>7511401</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>7705313</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>7705303</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>7211213</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>2927152</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>2933156</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>7584401</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>7584175</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>7584184</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>7577401</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>7577256</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>7577184</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>7577174</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>7577234</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>7577240</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>1404184</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>1404184</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>1404234</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>7556234</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>7556184</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>7556241</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>7556253</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>7556250</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>7489253</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>7489265</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>7489184</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>7489234</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>2889156</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>7485242</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>7485265</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>7485184</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>7485174</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>7485234</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>7485251</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>7208271</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>4906175</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>4906184</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>7705451</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>7705339</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>7705341</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>7705337</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>3040265</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>3001265</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>3006401</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>3006265</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>3006403</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>3006234</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C91" s="2">
-        <v>19</v>
-      </c>
-    </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+      <c r="A92">
         <v>3084401</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>0</v>
       </c>
     </row>
